--- a/data/vhl_data.xlsx
+++ b/data/vhl_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Primaire/Dev/3csh-workspace/Vintage/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Primaire/Dev/3csh.ca/htdocs/Vintage/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D750959-4EAF-D04D-B329-1AE4BA78943D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26580" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="partie-1" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,16 @@
     <sheet name="partie-3" sheetId="5" r:id="rId3"/>
     <sheet name="joueur" sheetId="2" r:id="rId4"/>
     <sheet name="partie" sheetId="3" r:id="rId5"/>
+    <sheet name="20180916" sheetId="6" r:id="rId6"/>
+    <sheet name="20180923" sheetId="8" r:id="rId7"/>
+    <sheet name="20180930" sheetId="9" r:id="rId8"/>
+    <sheet name="20181007" sheetId="10" r:id="rId9"/>
+    <sheet name="20181014" sheetId="11" r:id="rId10"/>
+    <sheet name="20181021" sheetId="12" r:id="rId11"/>
+    <sheet name="20181028" sheetId="13" r:id="rId12"/>
+    <sheet name="Feuil2" sheetId="7" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="160">
   <si>
     <t>Equipe des "foncés"</t>
   </si>
@@ -306,9 +315,6 @@
     <t>Nom de table:</t>
   </si>
   <si>
-    <t>joueur</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -349,13 +355,179 @@
   </si>
   <si>
     <t>A G</t>
+  </si>
+  <si>
+    <t>Benoit Dagenais</t>
+  </si>
+  <si>
+    <t>Charles Cockburn</t>
+  </si>
+  <si>
+    <t>Louis Dupont</t>
+  </si>
+  <si>
+    <t>Luc Denis</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>localhost/z3csh562_vhl/Joueur/</t>
+  </si>
+  <si>
+    <t>https://www.3csh.ca:2083/cpsess9399738805/3rdparty/phpMyAdmin/tbl_row_action.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Ce navigateur contient une configuration phpMyAdmin pour ce domaine. Faut-il l'importer dans la session courante ?        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Oui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        / Non</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        / Supprimer les paramètres </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Affichage des lignes 0 - 49 (total de 50, traité en 0.0002 seconde(s).)</t>
+  </si>
+  <si>
+    <t>SELECT `prenom`, `nom`, `id`, `statut` FROM `Joueur`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prenom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">statut </t>
+  </si>
+  <si>
+    <t>Doyon</t>
+  </si>
+  <si>
+    <t>Dagenais</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Yves</t>
+  </si>
+  <si>
+    <t>Labonté</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Frédéric</t>
+  </si>
+  <si>
+    <t>Chau</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Dupont</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Alain</t>
+  </si>
+  <si>
+    <t>Alain Lanouette</t>
+  </si>
+  <si>
+    <t>Lanouette</t>
+  </si>
+  <si>
+    <t>INSERT INTO `Alignement`(`EquipeId`) VALUES (1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+INSERT INTO `Alignement`(`EquipeId`) VALUES (2);</t>
+  </si>
+  <si>
+    <t>Laurier Gagnon</t>
+  </si>
+  <si>
+    <t>Laurier</t>
+  </si>
+  <si>
+    <t>Gagnon</t>
+  </si>
+  <si>
+    <t>D G</t>
+  </si>
+  <si>
+    <t>Cousin de Tom</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Mathilde Gagnon</t>
+  </si>
+  <si>
+    <t>Philippe Brouillard</t>
+  </si>
+  <si>
+    <t>Mathilde</t>
+  </si>
+  <si>
+    <t>Joueur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cousin de Tom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert </t>
+  </si>
+  <si>
+    <t>Liam Cassivi</t>
+  </si>
+  <si>
+    <t>Philippe</t>
+  </si>
+  <si>
+    <t>INSERT INTO `Alignement`(`EquipeId`) VALUES (2);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +694,65 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -705,7 +936,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -919,6 +1150,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -964,7 +1204,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,29 +1250,43 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1042,11 +1296,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1071,26 +1325,29 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A2:H32" totalsRowCount="1">
-  <autoFilter ref="A2:H31"/>
-  <sortState ref="A2:G36">
-    <sortCondition ref="C1:C36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A2:H52" totalsRowCount="1">
+  <autoFilter ref="A2:H51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:G56">
+    <sortCondition ref="C1:C56"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="id" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="prenom"/>
-    <tableColumn id="3" name="nom"/>
-    <tableColumn id="4" name="courriel"/>
-    <tableColumn id="5" name="telephone"/>
-    <tableColumn id="6" name="statut"/>
-    <tableColumn id="7" name="position"/>
-    <tableColumn id="8" name="Stmt" totalsRowFunction="count" dataDxfId="1">
-      <calculatedColumnFormula>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="prenom"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="nom"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="courriel"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="telephone"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="statut"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="position"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Stmt" totalsRowFunction="count" dataDxfId="1">
+      <calculatedColumnFormula>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1098,20 +1355,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau13" displayName="Tableau13" ref="A2:H29" totalsRowCount="1">
-  <autoFilter ref="A2:H28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau13" displayName="Tableau13" ref="A2:H29" totalsRowCount="1">
+  <autoFilter ref="A2:H28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A3:G37">
     <sortCondition ref="C1:C36"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="id" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="date"/>
-    <tableColumn id="3" name="heure"/>
-    <tableColumn id="4" name="courriel"/>
-    <tableColumn id="5" name="telephone"/>
-    <tableColumn id="6" name="statut"/>
-    <tableColumn id="7" name="position"/>
-    <tableColumn id="8" name="Stmt" totalsRowFunction="count" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="heure"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="courriel"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="telephone"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="statut"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="position"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Stmt" totalsRowFunction="count" dataDxfId="0">
       <calculatedColumnFormula>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau13[[#Headers],[date]]&amp;"`, `"&amp;Tableau13[[#Headers],[heure]]&amp;"`, `"&amp;Tableau13[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau13[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau13[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau13[[#This Row],[date]]&amp;"', '"&amp;Tableau13[[#This Row],[heure]]&amp;"', '"&amp;Tableau13[[#This Row],[courriel]]&amp;"', '"&amp;Tableau13[[#This Row],[telephone]]&amp;"', '"&amp;Tableau13[[#This Row],[statut]]&amp;"');"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1405,7 +1662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1422,7 +1679,7 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="29">
         <v>8</v>
       </c>
     </row>
@@ -1439,15 +1696,15 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1460,7 +1717,7 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -1473,7 +1730,7 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -1486,7 +1743,7 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -1499,14 +1756,14 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1519,7 +1776,7 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -1532,7 +1789,7 @@
       <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -1545,7 +1802,7 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -1558,7 +1815,7 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -1571,7 +1828,7 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
@@ -1584,7 +1841,7 @@
       <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -1604,11 +1861,11 @@
       <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="29">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
@@ -1621,14 +1878,14 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -1641,9 +1898,9 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -1654,9 +1911,9 @@
       <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
@@ -1667,9 +1924,9 @@
       <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="5" t="s">
         <v>20</v>
@@ -1680,14 +1937,14 @@
       <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -1700,9 +1957,9 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="5" t="s">
         <v>22</v>
@@ -1713,9 +1970,9 @@
       <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="5" t="s">
         <v>23</v>
@@ -1726,9 +1983,9 @@
       <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="5" t="s">
         <v>24</v>
@@ -1739,9 +1996,9 @@
       <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="5" t="s">
         <v>25</v>
@@ -1752,7 +2009,7 @@
       <c r="D28" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -1765,7 +2022,7 @@
       <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
@@ -1784,7 +2041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="14" t="s">
         <v>28</v>
@@ -1808,7 +2065,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="14" t="s">
         <v>30</v>
@@ -1842,8 +2099,3177 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778415DB-803F-7548-9EB0-FCE79CF56D13}">
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="23">
+        <v>43387</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-10-14','22:00',1,16,17);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (17,4,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (17,53,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (17,24,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (17,7,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (17,8,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (17,52,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (17,26,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (17,3,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (17,11,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (17,5,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (17,18,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (16,25,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (16,17,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C24&amp;",'"&amp;D24&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (16,27,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C25&amp;",'"&amp;D25&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (16,16,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="20">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C26&amp;",'"&amp;D26&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (16,15,'D');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (16,9,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (16,23,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (16,29,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (16,6,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (16,2,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (16,13,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DAA3F6-7C75-4045-B3B1-29A56AA9B5AF}">
+  <dimension ref="A1:I73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="23">
+        <v>43394</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-10-21','22:00',1,20,21);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (21,4,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (21,53,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (21,24,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (21,7,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (21,2,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (21,22,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (21,26,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (21,3,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (21,11,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (21,5,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (21,18,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (20,25,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (20,17,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C24&amp;",'"&amp;D24&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (20,27,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C25&amp;",'"&amp;D25&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (20,16,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="20">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C26&amp;",'"&amp;D26&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (20,15,'D');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (20,9,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (20,23,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (20,29,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (20,6,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (20,52,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (20,14,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+      <c r="B65" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+      <c r="B71" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D837973-03F4-854C-9B80-9B87764E509D}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="23">
+        <v>43401</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-10-28','22:00',1,22,23);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,7,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,53,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,24,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,13,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,2,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,22,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,26,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,3,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,11,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,5,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,18,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,25,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,17,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C24&amp;",'"&amp;D24&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,27,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C25&amp;",'"&amp;D25&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,16,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="20">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C26&amp;",'"&amp;D26&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,15,'D');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,9,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,23,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,29,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,6,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,52,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,14,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="30"/>
+      <c r="B45" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="30"/>
+      <c r="B49" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="30"/>
+      <c r="B50" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="30"/>
+      <c r="B51" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="30"/>
+      <c r="B54" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="30"/>
+      <c r="B55" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="30"/>
+      <c r="B56" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="30"/>
+      <c r="B57" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="30"/>
+      <c r="B58" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="30"/>
+      <c r="B60" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="30"/>
+      <c r="B64" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="30"/>
+      <c r="B65" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="30"/>
+      <c r="B66" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="30"/>
+      <c r="B69" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="30"/>
+      <c r="B70" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="30"/>
+      <c r="B71" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="30"/>
+      <c r="B72" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="30"/>
+      <c r="B73" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DED68DA-9D99-004C-8B4A-0492CAC6C95C}">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="str">
+        <f>A20&amp;" "&amp;B20</f>
+        <v>Nicholas Arbour</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ref="C21:C63" si="0">A21&amp;" "&amp;B21</f>
+        <v>Jean-Philippe Bélanger</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Eric Berndsen</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Yannick Boivin</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Daniel Boivin</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Martin Brouillard</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Luc Cassivi</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Marc Cassivi</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Thomas Cockburn</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Luc Dumont</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Serge Fleurent</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Benoit Gignac</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>François Hébert</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Sylvain Huppé</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>Eric Lebeuf</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>Dave LeBlanc</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>Jean-François Lord</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>Patrick Mainville</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>Pierre Malkassoff</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>Benoit Marsan</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>David Mercier</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>Rocco Panza</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>Thierry Petelle</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>Pier-André Roy</v>
+      </c>
+      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>Marc-François St-Pierre</v>
+      </c>
+      <c r="D44">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolas Vallières</v>
+      </c>
+      <c r="D45">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>Louis Dupont</v>
+      </c>
+      <c r="D46">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>Jonathan Doyon</v>
+      </c>
+      <c r="D47">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>Benoit Dagenais</v>
+      </c>
+      <c r="D48">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>Sam Lord</v>
+      </c>
+      <c r="D49">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>Nathan Malkassoff</v>
+      </c>
+      <c r="D50">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>Yves Labonté</v>
+      </c>
+      <c r="D51">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>Fred Mainville</v>
+      </c>
+      <c r="D52">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>Frédéric Chau</v>
+      </c>
+      <c r="D53">
+        <v>34</v>
+      </c>
+      <c r="E53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>Hugo Cassivi</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>Charles Cockburn</v>
+      </c>
+      <c r="D55">
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>Luc Denis</v>
+      </c>
+      <c r="D56">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>Alain Lanouette</v>
+      </c>
+      <c r="D57">
+        <v>54</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>Laurier Gagnon</v>
+      </c>
+      <c r="D58">
+        <v>55</v>
+      </c>
+      <c r="E58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>Mathilde Gagnon</v>
+      </c>
+      <c r="D59">
+        <v>56</v>
+      </c>
+      <c r="E59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>Liam Cassivi</v>
+      </c>
+      <c r="D60">
+        <v>57</v>
+      </c>
+      <c r="E60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Albert </v>
+      </c>
+      <c r="D61">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Cousin de Tom </v>
+      </c>
+      <c r="D62">
+        <v>59</v>
+      </c>
+      <c r="E62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>Philippe Brouillard</v>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1860,7 +5286,7 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1877,15 +5303,15 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1898,7 +5324,7 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -1911,12 +5337,12 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -1924,7 +5350,7 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -1937,14 +5363,14 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1957,7 +5383,7 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -1970,7 +5396,7 @@
       <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -1983,7 +5409,7 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -1996,7 +5422,7 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -2009,7 +5435,7 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
@@ -2022,7 +5448,7 @@
       <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -2042,11 +5468,11 @@
       <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
@@ -2059,14 +5485,14 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -2079,9 +5505,9 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -2092,9 +5518,9 @@
       <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="5" t="s">
         <v>31</v>
@@ -2105,7 +5531,7 @@
       <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
@@ -2116,19 +5542,19 @@
       <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>65</v>
@@ -2136,9 +5562,9 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="5" t="s">
         <v>22</v>
@@ -2149,9 +5575,9 @@
       <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="5" t="s">
         <v>23</v>
@@ -2162,9 +5588,9 @@
       <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="5" t="s">
         <v>24</v>
@@ -2175,9 +5601,9 @@
       <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="5" t="s">
         <v>25</v>
@@ -2188,7 +5614,7 @@
       <c r="D28" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -2201,7 +5627,7 @@
       <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
@@ -2220,7 +5646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="14" t="s">
         <v>28</v>
@@ -2244,7 +5670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="14" t="s">
         <v>30</v>
@@ -2279,10 +5705,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -2296,7 +5722,7 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="29">
         <v>11</v>
       </c>
     </row>
@@ -2313,15 +5739,15 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2334,7 +5760,7 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -2347,12 +5773,12 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>38</v>
@@ -2360,7 +5786,7 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -2373,14 +5799,14 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2393,7 +5819,7 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -2406,7 +5832,7 @@
       <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -2419,7 +5845,7 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -2432,7 +5858,7 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -2445,7 +5871,7 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
@@ -2458,7 +5884,7 @@
       <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -2478,11 +5904,11 @@
       <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
@@ -2495,14 +5921,14 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -2515,9 +5941,9 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
@@ -2528,9 +5954,9 @@
       <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="5" t="s">
         <v>31</v>
@@ -2541,7 +5967,7 @@
       <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
@@ -2552,19 +5978,19 @@
       <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>65</v>
@@ -2572,9 +5998,9 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="5" t="s">
         <v>22</v>
@@ -2585,9 +6011,9 @@
       <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="5" t="s">
         <v>23</v>
@@ -2598,9 +6024,9 @@
       <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="5" t="s">
         <v>24</v>
@@ -2611,9 +6037,9 @@
       <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="5" t="s">
         <v>25</v>
@@ -2624,7 +6050,7 @@
       <c r="D28" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -2637,7 +6063,7 @@
       <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
@@ -2656,7 +6082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="14" t="s">
         <v>28</v>
@@ -2680,7 +6106,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="14" t="s">
         <v>30</v>
@@ -2715,11 +6141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2735,7 +6161,7 @@
         <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2775,14 +6201,14 @@
         <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (1,'Nicholas', 'Arbour', '', '', 'S');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Nicholas', 'Arbour', '', '', 'S');</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2796,14 +6222,14 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (2,'Jean-Philippe', 'Bélanger', '', '', 'S');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Jean-Philippe', 'Bélanger', '', '', 'S');</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2817,35 +6243,35 @@
         <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (3,'Eric', 'Berndsen', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Eric', 'Berndsen', '', '', 'R');</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (4,'Yannick', 'Boivin', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Yannick', 'Boivin', '', '', 'R');</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2859,14 +6285,14 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (5,'Daniel', 'Boivin', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Daniel', 'Boivin', '', '', 'R');</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2880,14 +6306,14 @@
         <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H8" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (6,'Martin', 'Brouillard', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Martin', 'Brouillard', '', '', 'R');</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2901,14 +6327,14 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (7,'Luc', 'Cassivi', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Luc', 'Cassivi', '', '', 'R');</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2922,14 +6348,14 @@
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (8,'Marc', 'Cassivi', '', '', 'S');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Marc', 'Cassivi', '', '', 'S');</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2943,14 +6369,14 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (9,'Thomas', 'Cockburn', '', '', 'S');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Thomas', 'Cockburn', '', '', 'S');</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2964,14 +6390,14 @@
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (10,'Luc', 'Dumont', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Luc', 'Dumont', '', '', 'R');</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2985,14 +6411,14 @@
         <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (11,'Serge', 'Fleurent', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Serge', 'Fleurent', '', '', 'R');</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3006,14 +6432,14 @@
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H14" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (12,'Benoit', 'Gignac', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Benoit', 'Gignac', '', '', 'R');</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3027,14 +6453,14 @@
         <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (13,'François', 'Hébert', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('François', 'Hébert', '', '', 'R');</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3048,56 +6474,56 @@
         <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (14,'Sylvain', 'Huppé', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Sylvain', 'Huppé', '', '', 'R');</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H17" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (15,'Eric', 'Lebeuf', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Eric', 'Lebeuf', '', '', 'R');</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H18" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (16,'Dave', 'LeBlanc', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Dave', 'LeBlanc', '', '', 'R');</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3111,14 +6537,14 @@
         <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H19" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (17,'Jean-François', 'Lord', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Jean-François', 'Lord', '', '', 'R');</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3132,14 +6558,14 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (18,'Patrick', 'Mainville', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Patrick', 'Mainville', '', '', 'R');</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3153,14 +6579,14 @@
         <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (19,'Pierre', 'Malkassoff', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Pierre', 'Malkassoff', '', '', 'R');</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3174,14 +6600,14 @@
         <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H22" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (20,'Benoit', 'Marsan', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Benoit', 'Marsan', '', '', 'R');</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3195,14 +6621,14 @@
         <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (21,'David', 'Mercier', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('David', 'Mercier', '', '', 'R');</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3216,14 +6642,14 @@
         <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H24" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (22,'Rocco', 'Panza', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Rocco', 'Panza', '', '', 'R');</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3237,35 +6663,35 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H25" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (23,'Thierry', 'Petelle', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Thierry', 'Petelle', '', '', 'R');</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (24,'Pier-André', 'Roy', '', '', 'S');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Pier-André', 'Roy', '', '', 'S');</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3279,14 +6705,14 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (25,'Marc-François', 'St-Pierre', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Marc-François', 'St-Pierre', '', '', 'R');</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3300,14 +6726,14 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H28" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (26,'Nicolas', 'Vallières', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Nicolas', 'Vallières', '', '', 'R');</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3315,20 +6741,20 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H29" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (27,'Louis', 'Dumont', '', '', 'R');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Louis', 'Dumont', '', '', 'R');</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3336,35 +6762,285 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
         <v>100</v>
       </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" t="s">
-        <v>101</v>
-      </c>
       <c r="H30" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (28,'Jonathan', '', '', '', 'S');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Jonathan', '', '', '', 'S');</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>102</v>
+      </c>
       <c r="H31" t="str">
-        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[id]]&amp;"`,`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ("&amp;Tableau1[[#This Row],[id]]&amp;",'"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
-        <v>INSERT into `joueur` (`id`,`prenom`, `nom`, `courriel`, `telephone`, `statut`) values (29,'', '', '', '', '');</v>
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Charles', 'Cockburn', '', '', 'R');</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Luc', 'Denis', '', '', 'R');</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Alain', 'Lanouette', '', '', 'S');</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Laurier', 'Gagnon', '', '', 'S');</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Mathilde', 'Gagnon', '', '', 'S');</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Liam', 'Cassivi', '', '', 'S');</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Albert', '', '', '', 'S');</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Cousin de Tom', '', '', '', 'S');</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('Philippe', 'Brouillard', '', '', 'S');</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H41" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H42" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H43" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H45" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H46" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H48" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="22" t="str">
+        <f>"INSERT into `"&amp;$B$1&amp;"` (`"&amp;Tableau1[[#Headers],[prenom]]&amp;"`, `"&amp;Tableau1[[#Headers],[nom]]&amp;"`, `"&amp;Tableau1[[#Headers],[courriel]]&amp;"`, `"&amp;Tableau1[[#Headers],[telephone]]&amp;"`, `"&amp;Tableau1[[#Headers],[statut]]&amp;"`) values ('"&amp;Tableau1[[#This Row],[prenom]]&amp;"', '"&amp;Tableau1[[#This Row],[nom]]&amp;"', '"&amp;Tableau1[[#This Row],[courriel]]&amp;"', '"&amp;Tableau1[[#This Row],[telephone]]&amp;"', '"&amp;Tableau1[[#This Row],[statut]]&amp;"');"</f>
+        <v>INSERT into `Joueur` (`prenom`, `nom`, `courriel`, `telephone`, `statut`) values ('', '', '', '', '');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52">
         <f>SUBTOTAL(103,Tableau1[Stmt])</f>
-        <v>29</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +7052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3396,7 +7072,7 @@
         <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3404,10 +7080,10 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>85</v>
@@ -3665,7 +7341,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H29">
         <f>SUBTOTAL(103,Tableau13[Stmt])</f>
@@ -3678,4 +7354,2995 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88810176-982C-8346-ACE1-3DBACFD81733}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="23">
+        <v>43359</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-09-16','22:00',1,2,3);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (3,4,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (3,17,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (3,24,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (3,15,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (3,7,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (3,5,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (3,26,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (3,6,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (3,29,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (3,52,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (3,9,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (2,25,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" ref="I23:I26" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (2,13,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (2,27,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (2,16,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="20">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (2,53,'D');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="3">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (2,3,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (2,23,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (2,11,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (2,14,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (2,22,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (2,2,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B79C3A-1EB9-B54E-B970-C05C05746405}">
+  <dimension ref="A1:I70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="23">
+        <v>43366</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-09-23','22:00',1,4,5);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (5,4,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (5,8,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (5,24,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (5,15,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (5,7,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (5,5,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (5,26,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (5,6,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (5,29,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (5,52,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (5,9,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (4,25,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (4,13,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C24&amp;",'"&amp;D24&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (4,27,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C25&amp;",'"&amp;D25&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (4,16,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="20">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C26&amp;",'"&amp;D26&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (4,53,'D');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (4,3,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (4,23,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (4,11,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (4,14,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (4,22,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (4,2,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+      <c r="B62" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+      <c r="B65" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="25"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3654CD1A-41D2-C740-903F-3931563FACB6}">
+  <dimension ref="A1:I70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="23">
+        <v>43366</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-09-23','22:00',1,6,7);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (7,55,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (7,,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (7,24,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (7,15,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (7,7,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (7,52,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (7,26,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (7,6,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (7,29,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (7,18,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (7,9,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (6,25,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (6,13,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C24&amp;",'"&amp;D24&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (6,27,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C25&amp;",'"&amp;D25&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (6,16,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="20">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C26&amp;",'"&amp;D26&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (6,53,'D');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (6,3,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (6,23,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (6,11,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (6,22,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (6,2,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$60,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (6,54,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+      <c r="B65" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="25"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755DE2FF-4952-1F41-B814-8F0F8D31298F}">
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="23">
+        <v>43359</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-09-16','22:00',1,8,9);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (9,25,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (9,15,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (9,53,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (9,16,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (9,7,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (9,2,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (9,29,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (9,9,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (9,59,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (9,58,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (9,57,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (8,56,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (8,13,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C24&amp;",'"&amp;D24&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (8,17,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C25&amp;",'"&amp;D25&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (8,27,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="20">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C26&amp;",'"&amp;D26&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (8,55,'D');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (8,6,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (8,14,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (8,22,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (8,26,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (8,60,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (8,11,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+      <c r="B62" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/vhl_data.xlsx
+++ b/data/vhl_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Primaire/Dev/3csh.ca/htdocs/Vintage/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D750959-4EAF-D04D-B329-1AE4BA78943D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D76519-3FF2-1A46-8E3A-5D9A2F9D5876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26500" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="partie-1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,12 @@
     <sheet name="20181014" sheetId="11" r:id="rId10"/>
     <sheet name="20181021" sheetId="12" r:id="rId11"/>
     <sheet name="20181028" sheetId="13" r:id="rId12"/>
-    <sheet name="Feuil2" sheetId="7" r:id="rId13"/>
+    <sheet name="20181104" sheetId="14" r:id="rId13"/>
+    <sheet name="20181111" sheetId="15" r:id="rId14"/>
+    <sheet name="20181118" sheetId="17" r:id="rId15"/>
+    <sheet name="20181125" sheetId="18" r:id="rId16"/>
+    <sheet name="20181202" sheetId="16" r:id="rId17"/>
+    <sheet name="Feuil2" sheetId="7" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="162">
   <si>
     <t>Equipe des "foncés"</t>
   </si>
@@ -521,13 +526,19 @@
   </si>
   <si>
     <t>INSERT INTO `Alignement`(`EquipeId`) VALUES (2);</t>
+  </si>
+  <si>
+    <t>Fred Mainville</t>
+  </si>
+  <si>
+    <t>Martin Turbide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +763,25 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1204,7 +1234,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,11 +1292,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1679,7 +1713,7 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="29">
+      <c r="F1" s="35">
         <v>8</v>
       </c>
     </row>
@@ -1696,13 +1730,13 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="F3" s="29"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1717,7 +1751,7 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -1730,7 +1764,7 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -1743,7 +1777,7 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -1756,12 +1790,12 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="F8" s="29"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1776,7 +1810,7 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -1789,7 +1823,7 @@
       <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -1802,7 +1836,7 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -1815,7 +1849,7 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -1828,7 +1862,7 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
@@ -1841,7 +1875,7 @@
       <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -1861,7 +1895,7 @@
       <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="35">
         <v>7</v>
       </c>
     </row>
@@ -1878,12 +1912,12 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1898,7 +1932,7 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
@@ -1911,7 +1945,7 @@
       <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
@@ -1924,7 +1958,7 @@
       <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
@@ -1937,12 +1971,12 @@
       <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1957,7 +1991,7 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
@@ -1970,7 +2004,7 @@
       <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
@@ -1983,7 +2017,7 @@
       <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -1996,7 +2030,7 @@
       <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
@@ -2009,7 +2043,7 @@
       <c r="D28" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -2022,7 +2056,7 @@
       <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
@@ -3637,8 +3671,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="19">
@@ -3668,8 +3702,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3695,7 +3729,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="20" t="s">
         <v>5</v>
       </c>
@@ -3715,7 +3749,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="25" t="s">
         <v>29</v>
       </c>
@@ -3735,7 +3769,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="20" t="s">
         <v>26</v>
       </c>
@@ -3755,8 +3789,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3782,7 +3816,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="20" t="s">
         <v>10</v>
       </c>
@@ -3802,7 +3836,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="20" t="s">
         <v>28</v>
       </c>
@@ -3822,7 +3856,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="20" t="s">
         <v>23</v>
       </c>
@@ -3842,7 +3876,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="20" t="s">
         <v>9</v>
       </c>
@@ -3862,7 +3896,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="20" t="s">
         <v>11</v>
       </c>
@@ -3887,8 +3921,8 @@
       <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="28">
@@ -3918,8 +3952,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3945,7 +3979,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="20" t="s">
         <v>107</v>
       </c>
@@ -3965,7 +3999,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="20" t="s">
         <v>6</v>
       </c>
@@ -3985,7 +4019,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="20" t="s">
         <v>4</v>
       </c>
@@ -4005,8 +4039,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -4032,7 +4066,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="20" t="s">
         <v>22</v>
       </c>
@@ -4052,7 +4086,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="20" t="s">
         <v>105</v>
       </c>
@@ -4072,7 +4106,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="20" t="s">
         <v>12</v>
       </c>
@@ -4092,7 +4126,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="20" t="s">
         <v>106</v>
       </c>
@@ -4112,7 +4146,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
       </c>
@@ -4156,8 +4190,8 @@
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="31" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="18"/>
@@ -4174,8 +4208,8 @@
       <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="18"/>
       <c r="D47" s="20"/>
     </row>
@@ -4190,7 +4224,7 @@
       <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="20" t="s">
         <v>5</v>
       </c>
@@ -4198,7 +4232,7 @@
       <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="30"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="25" t="s">
         <v>29</v>
       </c>
@@ -4206,7 +4240,7 @@
       <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="20" t="s">
         <v>26</v>
       </c>
@@ -4214,8 +4248,8 @@
       <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="18"/>
       <c r="D52" s="20"/>
     </row>
@@ -4230,7 +4264,7 @@
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="20" t="s">
         <v>10</v>
       </c>
@@ -4238,7 +4272,7 @@
       <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="20" t="s">
         <v>28</v>
       </c>
@@ -4246,7 +4280,7 @@
       <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="20" t="s">
         <v>23</v>
       </c>
@@ -4254,7 +4288,7 @@
       <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="30"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="20" t="s">
         <v>9</v>
       </c>
@@ -4262,7 +4296,7 @@
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="30"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="20" t="s">
         <v>11</v>
       </c>
@@ -4270,14 +4304,14 @@
       <c r="D58" s="18"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
-      <c r="B60" s="31" t="s">
+      <c r="A60" s="29"/>
+      <c r="B60" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="18"/>
@@ -4294,8 +4328,8 @@
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="18"/>
       <c r="D62" s="20"/>
     </row>
@@ -4310,7 +4344,7 @@
       <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="30"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="20" t="s">
         <v>107</v>
       </c>
@@ -4318,7 +4352,7 @@
       <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="30"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="20" t="s">
         <v>6</v>
       </c>
@@ -4326,7 +4360,7 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="30"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="20" t="s">
         <v>4</v>
       </c>
@@ -4334,8 +4368,8 @@
       <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="18"/>
       <c r="D67" s="20"/>
     </row>
@@ -4350,7 +4384,7 @@
       <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="30"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="20" t="s">
         <v>22</v>
       </c>
@@ -4358,26 +4392,26 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="20" t="s">
         <v>105</v>
       </c>
       <c r="C70" s="25"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="30"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="20" t="s">
         <v>24</v>
       </c>
@@ -4391,6 +4425,3930 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0997E2-5966-3140-8559-CCF526F28939}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="23">
+        <v>43401</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-10-28','22:00',1,22,23);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,7,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,53,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,24,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,17,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,16,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,22,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,26,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,14,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,23,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,29,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (23,2,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,25,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,13,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
+      <c r="B24" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C24&amp;",'"&amp;D24&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,8,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
+      <c r="B25" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C25&amp;",'"&amp;D25&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,27,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
+      <c r="B26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="20">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C26&amp;",'"&amp;D26&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,15,'D');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,9,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
+      <c r="B29" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,3,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="31"/>
+      <c r="B30" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,11,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="31"/>
+      <c r="B31" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,6,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="31"/>
+      <c r="B32" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,52,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (22,18,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="31"/>
+      <c r="B49" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="31"/>
+      <c r="B50" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="31"/>
+      <c r="B51" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="31"/>
+      <c r="B54" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="31"/>
+      <c r="B55" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="31"/>
+      <c r="B56" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="31"/>
+      <c r="B57" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="31"/>
+      <c r="B58" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="31"/>
+      <c r="B60" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="31"/>
+      <c r="B64" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="31"/>
+      <c r="B65" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="31"/>
+      <c r="B66" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="31"/>
+      <c r="B69" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="31"/>
+      <c r="B70" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="31"/>
+      <c r="B71" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="31"/>
+      <c r="B72" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="31"/>
+      <c r="B73" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799B5EFC-FD7E-ED4C-B0B2-632E48C4A9CA}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="34">
+        <v>43415</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-11-11','22:00',1,26,27);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,4,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,53,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,13,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,16,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,54,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,22,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,26,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,23,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,29,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,2,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,5,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,25,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,17,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C24&amp;",'"&amp;D24&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,8,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C25&amp;",'"&amp;D25&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,15,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="20">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C26&amp;",'"&amp;D26&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,7,'D');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,9,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,3,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,11,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,6,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,52,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,18,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+      <c r="B65" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+      <c r="B71" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+      <c r="B73" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26D9D63-631C-1144-BE2C-4F579F49D76D}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="34">
+        <v>43422</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-11-18','22:00',1,28,29);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (29,4,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (29,53,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (29,27,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (29,16,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (29,54,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (29,26,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (29,29,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (29,5,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (29,23,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (29,57,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (29,58,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (28,25,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (28,17,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C24&amp;",'"&amp;D24&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (28,7,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C25&amp;",'"&amp;D25&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (28,13,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="20" t="e">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="e">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C26&amp;",'"&amp;D26&amp;"');"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (28,9,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (28,3,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (28,18,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (28,2,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (28,6,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (28,11,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+      <c r="B65" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+      <c r="B71" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+      <c r="B73" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219EE6FE-9968-0544-8656-1F0F3DDBE384}">
+  <dimension ref="A1:I74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="34">
+        <v>43429</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-11-25','22:00',1,26,27);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,55,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,17,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,8,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,15,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,7,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,57,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,26,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,23,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,33,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,11,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (27,14,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,25,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,53,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C24&amp;",'"&amp;D24&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,13,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C25&amp;",'"&amp;D25&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,27,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="C26" s="20" t="e">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="e">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C26&amp;",'"&amp;D26&amp;"');"</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,9,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,3,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,2,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,6,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,52,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (26,29,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+      <c r="B71" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+      <c r="B73" s="20"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8C9452-6F31-4845-995E-DCF31EF611F9}">
+  <dimension ref="A1:I75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="34">
+        <v>43436</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('"&amp;TEXT($B$4,"aaaa-mm-jj")&amp;"','22:00',1,"&amp;$C$20&amp;","&amp;$C$5&amp;");"</f>
+        <v>INSERT INTO `Partie`(`datePartie`, `Heure`, `ArenaNo`, `EquipeLocale`,`EquipeVisite`) VALUES ('2018-12-02','22:00',1,,);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="20">
+        <f>VLOOKUP(B6,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C6&amp;",'"&amp;D6&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,55,'G');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="20">
+        <f>VLOOKUP(B8,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ref="I8:I11" si="0">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C8&amp;",'"&amp;D8&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,17,'D');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="20">
+        <f>VLOOKUP(B9,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,8,'D');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20">
+        <f>VLOOKUP(B10,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,15,'D');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20">
+        <f>VLOOKUP(B11,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,7,'D');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="20">
+        <f>VLOOKUP(B13,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I18" si="1">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$5&amp;","&amp;C13&amp;",'"&amp;D13&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,14,'A');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20">
+        <f>VLOOKUP(B14,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,26,'A');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="20">
+        <f>VLOOKUP(B15,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,23,'A');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20">
+        <f>VLOOKUP(B16,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,11,'A');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="20">
+        <f>VLOOKUP(B17,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,13,'A');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="20">
+        <f>VLOOKUP(B18,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,29,'A');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="20">
+        <f>VLOOKUP(B21,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C21&amp;",'"&amp;D21&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,25,'G');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="20">
+        <f>VLOOKUP(B23,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C23&amp;",'"&amp;D23&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,53,'D');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="20">
+        <f>VLOOKUP(B24,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C24&amp;",'"&amp;D24&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,24,'D');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="20">
+        <f>VLOOKUP(B25,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C25&amp;",'"&amp;D25&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,27,'D');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="20">
+        <f>VLOOKUP(B26,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <f>"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C26&amp;",'"&amp;D26&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,16,'D');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="20">
+        <f>VLOOKUP(B28,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I33" si="2">"INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES ("&amp;$C$20&amp;","&amp;C28&amp;",'"&amp;D28&amp;"');"</f>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,54,'A');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="20">
+        <f>VLOOKUP(B29,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,3,'A');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="20">
+        <f>VLOOKUP(B30,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,2,'A');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="20">
+        <f>VLOOKUP(B31,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,6,'A');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="20">
+        <f>VLOOKUP(B32,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,52,'A');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="20">
+        <f>VLOOKUP(B33,Feuil2!$C$20:$D$100,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `Formation`(`AlignementId`, `JoueurId`, `PosAbbr`) VALUES (,18,'A');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="18"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+      <c r="B65" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+      <c r="B71" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+      <c r="B73" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="18"/>
+      <c r="B74" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DED68DA-9D99-004C-8B4A-0492CAC6C95C}">
   <dimension ref="A1:E63"/>
   <sheetViews>
@@ -5286,7 +9244,7 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="29">
+      <c r="F1" s="35">
         <v>2</v>
       </c>
     </row>
@@ -5303,13 +9261,13 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="F3" s="29"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5324,7 +9282,7 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -5337,7 +9295,7 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -5350,7 +9308,7 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -5363,12 +9321,12 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="F8" s="29"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -5383,7 +9341,7 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -5396,7 +9354,7 @@
       <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -5409,7 +9367,7 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -5422,7 +9380,7 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -5435,7 +9393,7 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
@@ -5448,7 +9406,7 @@
       <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -5468,7 +9426,7 @@
       <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="35">
         <v>5</v>
       </c>
     </row>
@@ -5485,12 +9443,12 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -5505,7 +9463,7 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
@@ -5518,7 +9476,7 @@
       <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
@@ -5531,7 +9489,7 @@
       <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
@@ -5542,12 +9500,12 @@
       <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -5562,7 +9520,7 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
@@ -5575,7 +9533,7 @@
       <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
@@ -5588,7 +9546,7 @@
       <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -5601,7 +9559,7 @@
       <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
@@ -5614,7 +9572,7 @@
       <c r="D28" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -5627,7 +9585,7 @@
       <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
@@ -5722,7 +9680,7 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="29">
+      <c r="F1" s="35">
         <v>11</v>
       </c>
     </row>
@@ -5739,13 +9697,13 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="F3" s="29"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5760,7 +9718,7 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -5773,7 +9731,7 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -5786,7 +9744,7 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -5799,12 +9757,12 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
-      <c r="F8" s="29"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -5819,7 +9777,7 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -5832,7 +9790,7 @@
       <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -5845,7 +9803,7 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -5858,7 +9816,7 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -5871,7 +9829,7 @@
       <c r="D13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
@@ -5884,7 +9842,7 @@
       <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -5904,7 +9862,7 @@
       <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="35">
         <v>3</v>
       </c>
     </row>
@@ -5921,12 +9879,12 @@
       <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -5941,7 +9899,7 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
@@ -5954,7 +9912,7 @@
       <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
@@ -5967,7 +9925,7 @@
       <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
@@ -5978,12 +9936,12 @@
       <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -5998,7 +9956,7 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
@@ -6011,7 +9969,7 @@
       <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
@@ -6024,7 +9982,7 @@
       <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -6037,7 +9995,7 @@
       <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
@@ -6050,7 +10008,7 @@
       <c r="D28" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -6063,7 +10021,7 @@
       <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
@@ -7360,7 +11318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88810176-982C-8346-ACE1-3DBACFD81733}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
